--- a/votaciones/Content/Formato/users.xlsx
+++ b/votaciones/Content/Formato/users.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcosdfz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F691CD7F-4594-4E43-AFA7-D2DF0E369E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88723B8B-7C92-DA4D-BEF5-3416C234AEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{76C0F045-0BEB-184A-9C25-5066B8CE494F}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="31200" windowHeight="18900" xr2:uid="{76C0F045-0BEB-184A-9C25-5066B8CE494F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>CORREO</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -45,15 +42,12 @@
     <t>CÉDULA</t>
   </si>
   <si>
-    <t>DIRECCIÓN</t>
+    <t>UNIDAD EDUCATIVA "JOSÉ MEJÍA LEQUERICA"</t>
   </si>
   <si>
-    <t>FACULTAD</t>
+    <t>CURSO</t>
   </si>
   <si>
-    <t>USUARIOS</t>
-  </si>
-  <si>
     <r>
       <t>TODOS</t>
     </r>
@@ -66,7 +60,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> los campos deben ser llenados </t>
+      <t xml:space="preserve"> los campos existentes en este formato deben ser completados </t>
     </r>
     <r>
       <rPr>
@@ -90,6 +84,123 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">.
+El campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cédula</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> es un ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>único,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> por ende, no deben existir números de cédula </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duplicados</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+El campo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cédula</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> debe contener obligatoriamente</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mínimo</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10 dígitos para que el formato se cumpla.
 </t>
     </r>
     <r>
@@ -113,77 +224,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> se puede alterar el orden de las columnas o añadir ningún campo adicional a los que se proporciona.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">En el campo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Facultad"</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> solo se debe ingresar las iniciales de la misma y todo en </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MAYÚSCULA </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(ej. CIYA, CAREN, CCHH, CCAA).</t>
+      <t xml:space="preserve"> se puede alterar el orden de las columnas o añadir ningún campo adicional a los que se proporciona a continuación.</t>
     </r>
   </si>
 </sst>
@@ -191,7 +232,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +271,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri (Cuerpo)"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -237,12 +284,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -256,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -280,77 +327,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -359,6 +360,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEDA54D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -368,6 +374,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1155700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>876301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B7315C-F6FE-8443-AFE2-7AA3CF982BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="114301"/>
+          <a:ext cx="863600" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,67 +722,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A275676B-8E2F-154A-A24A-A24599D850C9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="37.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38" customHeight="1">
+    <row r="1" spans="1:4" ht="78" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" ht="57" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
+    <row r="2" spans="1:4" ht="97" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:6" ht="19">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="32" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>